--- a/Android/ExcelData/DungeonTable.xlsx
+++ b/Android/ExcelData/DungeonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A90ED8-0DC5-41B6-ABFC-46E40F4611E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C8E38-16EB-419A-9FE8-FE51349AABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3015" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,37 +420,13 @@
         </row>
       </sheetData>
       <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
@@ -894,7 +867,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,8 +1002,8 @@
       <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6">
-        <v>1001115</v>
+      <c r="I5" s="4">
+        <v>1001101</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/DungeonTable.xlsx
+++ b/Android/ExcelData/DungeonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C8E38-16EB-419A-9FE8-FE51349AABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9D310-1A19-4637-B429-E32DA062D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
+    <workbookView xWindow="2820" yWindow="1725" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G2" sqref="G2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/DungeonTable.xlsx
+++ b/Android/ExcelData/DungeonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9D310-1A19-4637-B429-E32DA062D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAFBE7-E991-4B32-BBCD-F061E2EC96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1725" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
+    <workbookView xWindow="2850" yWindow="2505" windowWidth="34125" windowHeight="18165" activeTab="1" xr2:uid="{FC3B9A22-4481-4E54-9FAE-77D0CE3594C4}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -308,18 +308,17 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
+      <sheetName val="!@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@story_type"/>
+      <sheetName val="@reward"/>
+      <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -412,13 +411,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -430,9 +423,14 @@
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -867,7 +865,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="4">
-        <v>1001101</v>
+        <v>1001210</v>
       </c>
     </row>
   </sheetData>
